--- a/Commands - Python.xlsx
+++ b/Commands - Python.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashish\Desktop\Data Science\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashish\Desktop\Github Repos\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D106E367-E75E-4287-8F11-8812E0481E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D10034E-7466-4DA3-87DB-F8DB312AED27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,12 +26,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="230">
   <si>
     <t xml:space="preserve"># </t>
   </si>
@@ -196,9 +203,6 @@
   </si>
   <si>
     <t>Subsetting / Filtering Data</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t>repeat element</t>
@@ -297,12 +301,6 @@
     <t>Cut function</t>
   </si>
   <si>
-    <t>v &lt;- filter(d, grepl('2016', d$Actual_EndDate_Central))</t>
-  </si>
-  <si>
-    <t>df = gsub('10','20',df$age)</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.It will filter data where 2016 is present as substring in column d$Actual_EndDate_Central))….where dn is present &amp; rank is 1st
 2.It will filter data where city is Tripoli &amp; rank is 1st
 3.If we want to select multiple values in single coumn …use isin fuction…We can also use OR operator (|)
@@ -318,11 +316,6 @@
     <t>df['Repeat'] = np.repeat('Ashish', df.shape[0])</t>
   </si>
   <si>
-    <t>rep('Ashish', 10)
-rep(c("A","B"), 2)
-df$age = rep(20, nrow(df))</t>
-  </si>
-  <si>
     <t>DateTime Function</t>
   </si>
   <si>
@@ -353,9 +346,6 @@
   </si>
   <si>
     <t>Column wise binding</t>
-  </si>
-  <si>
-    <t>Cbind()</t>
   </si>
   <si>
     <r>
@@ -396,9 +386,6 @@
   </si>
   <si>
     <t>Row wise binding</t>
-  </si>
-  <si>
-    <t>rbind()</t>
   </si>
   <si>
     <r>
@@ -916,6 +903,174 @@
   </si>
   <si>
     <t>To check run time</t>
+  </si>
+  <si>
+    <t>Pyspark</t>
+  </si>
+  <si>
+    <t>First start spark session before start any coding
+import pyspark
+from pyspark.sql import SparkSession
+spark = SparkSession.builder.appName('Practice').getOrCreate()
+spark</t>
+  </si>
+  <si>
+    <t>df = spark.read.csv('Test_Data.csv', header=True, inferSchema=True)</t>
+  </si>
+  <si>
+    <t># If data is not too heavy
+df.toPandas().to_csv('Write.csv', index=None)
+# It will create a folder, and inside that will create the file - Not working in my laptop
+df.write.csv('Ashish', header=True)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://stackoverflow.com/questions/56426069/how-to-read-xlsx-or-xls-files-as-spark-dataframe</t>
+  </si>
+  <si>
+    <t>df.tail(5)</t>
+  </si>
+  <si>
+    <t>df.head(6),    df.show(10)</t>
+  </si>
+  <si>
+    <t>df.describe().show()</t>
+  </si>
+  <si>
+    <t>print((df.count(), len(df.columns)))</t>
+  </si>
+  <si>
+    <t>df[['Name']].dtypes</t>
+  </si>
+  <si>
+    <t>We can replace float with 'int' in above example</t>
+  </si>
+  <si>
+    <t>We can replace float with 'string' in above example</t>
+  </si>
+  <si>
+    <t>from pyspark.sql.functions import isnan, when, count, col
+df.select([count(when(isnan(c), c)).alias(c) for c in df.columns]).show()
+df.select([count(when(col(c).isNull(), c)).alias(c) for c in df.columns]).show()
+df.select([count(when(isnan(c) | col(c).isNull() , c)).alias(c) for c in df.columns]).show()</t>
+  </si>
+  <si>
+    <t>https://sparkbyexamples.com/pyspark/</t>
+  </si>
+  <si>
+    <t>from pyspark.sql.functions import col, countDistinct
+col_name = 'Name'
+df.select(countDistinct(df[col_name]).alias(col_name)).show()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+df.select([countDistinct(c).alias(c) for c in df.columns]).show()</t>
+  </si>
+  <si>
+    <t>df.groupBy('Name').count().orderBy('count', ascending=False).show()</t>
+  </si>
+  <si>
+    <t># This will replace only null in string data type column
+df.na.fill('Missing Value').show() 
+# This will replace only null in int data type column
+df.na.fill(50).show()  
+df.na.fill(40, subset=['Age']).show()
+df.na.fill({'Name':'Missing Value', 'Age':50, 'Experience':20}).show()
+from pyspark.ml.feature import Imputer
+imputer = Imputer(inputCols=['Age','Experience'], 
+                  outputCols=['{}_imputed'.format(cols) for cols in ['Age','Experience']]).setStrategy('mean')
+imputer.fit(df).transform(df).show()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Be default, how='any'
+df.na.drop().show() 
+df.na.drop(how='all').show()
+# It will not drop the row if it has atleast 2 non-null
+df.na.drop(thresh=2).show() 
+# It will delete the row if mentioned columns has any null value
+df.na.drop(how='any', subset=['Name']).show() </t>
+  </si>
+  <si>
+    <t># One column at a time
+df1 = df.withColumn('Age', df['Age'].cast('float'))
+df1.dtypes
+# Multiple columns - Using select we have to pass all columns whether we are casting it or not
+df1 = df.select(df['Name'], 
+                df['Departments'], 
+                df['Salary'].cast('float'), 
+                df['Expenditure'].cast('float'))
+df1.dtypes</t>
+  </si>
+  <si>
+    <t>df1 = df.dropDuplicates()
+df1 = df.dropDuplicates(['Name'])
+df1 = df.dropDuplicates(['Salary', 'Expenditure'])</t>
+  </si>
+  <si>
+    <t>df1.groupby('Departments').agg({'Salary':'sum', 'Expenditure':'mean'}).show()
+df1.groupby('Name','Departments').agg({'Salary':'sum', 'Expenditure':'mean'}).show()
+from pyspark.sql import functions as F
+df1.groupBy("Departments").agg(F.mean('Salary'), F.count('Salary')).show()
+df1.groupBy("Departments").agg(F.mean('Salary'), F.count('Salary'), F.mean('Expenditure')).show()</t>
+  </si>
+  <si>
+    <t>from pyspark.sql.functions import regexp_replace
+df.withColumn('Departments', regexp_replace('Departments', 'IOT', 'Internet of Things')).show()
+mapping = {'Data Science': 'DS', 'Big Data': 'BG'}
+df.replace(mapping, subset=['Departments']).show()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+df.filter((df['Name']=='Ashish') &amp; (df['Departments']=='Data Science')).show()
+df.filter((df['Name']=='Ashish') &amp; (df['Departments'].isin(['IOT','Big Data']))).show()
+df.filter((df['Name']=='Ashish') &amp; (df['Departments']!='Data Science')).show()
+df.filter((df['Name']=='Ashish') &amp; ~(df['Departments']=='Data Science')).show()
+df.filter(df['Name']=='Ashish').show()
+df.filter(df['Name'].isNull()).show()
+df.select(df.columns[1:3]).show()</t>
+  </si>
+  <si>
+    <t>df[['Name','Departments']].show()
+df.select('Name','Departments').show()
+df.select(df.columns[1:3]).show()</t>
+  </si>
+  <si>
+    <t>from pyspark.sql.functions import lit
+df.withColumn('New Salary', lit('same')).show()</t>
+  </si>
+  <si>
+    <t>df.drop('Salary','Expenditure').show()</t>
+  </si>
+  <si>
+    <t>df1.join(df2, df1['ID'] ==  df2['ID'],"inner").show()
+dataframe.join(dataframe1, (dataframe.ID1 == dataframe1.ID2)
+               &amp; (dataframe.NAME1 == dataframe1.NAME2)).show()</t>
+  </si>
+  <si>
+    <t>from pyspark.sql.functions import to_date, to_timestamp, to_utc_timestamp, datediff
+from pyspark.sql.functions import dayofweek, dayofmonth, dayofyear, date_format, year, month, quarter , weekofyear
+df2 = df1.withColumn('Year', year(df1['New_Date'])) \
+           .withColumn('Month', month(df1['New_Date'])) \
+           .withColumn('Day', dayofmonth(df1['New_Date'])) \
+           .withColumn('Week', weekofyear(df1['New_Date'])) \
+           .withColumn('Quarter', quarter(df1['New_Date'])) \
+           .withColumn('DayOfWeek', dayofweek(df1['New_Date'])) \
+           .withColumn('DayOfYear', dayofyear(df1['New_Date'])) \
+           .withColumn('Weekday', date_format(df1['New_Date'], "EEEE"))</t>
+  </si>
+  <si>
+    <t>df.withColumn('DateDifference', datediff(df['New_Date'], df['Date']))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+df.withColumn('New Departments', when((df['Name']=='Ashish') &amp; (df['Departments']=='Data Science'),'DS').otherwise(df['Departments'])).show()
+df.withColumn('New Departments', when(df['Departments']=='Data Science','DS').
+                                 when(df['Departments']=='Big Data','BG').
+                                 when(df['Departments'].isNull(),'--').
+                                 otherwise(df['Departments'])).show()
+from pyspark.sql.functions import concat, concat_ws
+df.withColumn('New', concat(df['Name'], df['Departments'])).show()
+df.withColumn('New', concat_ws('_',df['Name'], df['Departments'])).show()</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1137,22 +1292,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1184,14 +1324,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1476,28 +1640,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="94.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="96.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="83.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
+    <row r="1" spans="1:5" ht="45">
+      <c r="B1" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1"/>
       <c r="E1" t="s">
         <v>45</v>
       </c>
@@ -1508,6 +1673,9 @@
       </c>
     </row>
     <row r="3" spans="1:5">
+      <c r="D3" s="14" t="s">
+        <v>212</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1516,721 +1684,797 @@
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>2</v>
+        <v>199</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="33" customFormat="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="1:5" ht="45.75" thickBot="1">
-      <c r="B6" s="2" t="s">
-        <v>171</v>
+    <row r="5" spans="1:5" s="27" customFormat="1">
+      <c r="A5" s="26"/>
+      <c r="B5" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" ht="90.75" thickBot="1">
+      <c r="B6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickTop="1">
-      <c r="A7" s="16">
+      <c r="A7" s="13">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="D7" s="35" t="s">
+        <v>201</v>
+      </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="75">
-      <c r="A8" s="16"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="11" t="s">
-        <v>180</v>
-      </c>
+      <c r="A8" s="13"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="36"/>
       <c r="E8" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="75">
-      <c r="A9" s="16">
+      <c r="A9" s="13">
         <v>2</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="D9" s="11" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="75">
-      <c r="A10" s="16">
+      <c r="A10" s="13">
         <v>3</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="D10" s="11" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="75.75" thickBot="1">
-      <c r="A11" s="16">
+      <c r="A11" s="13">
         <v>4</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="30" t="s">
-        <v>200</v>
-      </c>
+      <c r="C11" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="25"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="A12" s="13"/>
+      <c r="B12" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickTop="1">
-      <c r="A13" s="16">
+      <c r="A13" s="13">
         <v>5</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D13" s="5" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="16">
+      <c r="A14" s="13">
         <v>6</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D14" s="4" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="16">
+      <c r="A15" s="13">
         <v>7</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D15" s="4" t="s">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="16">
+      <c r="A16" s="13">
         <v>8</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D16" s="4" t="s">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A17" s="16">
+      <c r="A17" s="13">
         <v>9</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="D18" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickTop="1">
-      <c r="A19" s="16">
+      <c r="A19" s="13">
         <v>10</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="D19" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="16">
+      <c r="A20" s="13">
         <v>11</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D20" s="4" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="60">
-      <c r="A21" s="16">
+    <row r="21" spans="1:6" ht="165">
+      <c r="A21" s="13">
         <v>12</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="D21" s="11" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="16">
+      <c r="A22" s="13">
         <v>13</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D22" s="4" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A23" s="16">
+      <c r="A23" s="13">
         <v>14</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="D23" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickTop="1">
-      <c r="A24" s="16">
+      <c r="A24" s="13">
         <v>15</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="D24" s="5"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="16">
+    <row r="25" spans="1:6" ht="90">
+      <c r="A25" s="13">
         <v>16</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="D25" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A26" s="16">
+      <c r="A26" s="13">
         <v>17</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="D26" s="25"/>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickTop="1">
-      <c r="A27" s="16">
+      <c r="A27" s="13">
         <v>18</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="16">
+    <row r="28" spans="1:6" ht="60">
+      <c r="A28" s="13">
         <v>19</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="D28" s="11" t="s">
+        <v>213</v>
+      </c>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A29" s="16">
+      <c r="A29" s="13">
         <v>20</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="D29" s="11" t="s">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="45.75" thickTop="1">
-      <c r="A30" s="16">
+      <c r="A30" s="13">
         <v>21</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>124</v>
+      <c r="C30" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A31" s="16">
+      <c r="A31" s="13">
         <v>22</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="D31" s="8"/>
       <c r="E31" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="105.75" thickTop="1">
-      <c r="B32" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="225.75" thickTop="1">
+      <c r="B32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="19" t="s">
+    </row>
+    <row r="33" spans="2:6" ht="150">
+      <c r="B33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" ht="45">
-      <c r="B33" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D33" s="3" t="s">
-        <v>62</v>
+        <v>217</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="90">
       <c r="B34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="19"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="2:6" ht="30">
       <c r="B35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>108</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="19"/>
+        <v>101</v>
+      </c>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="2:6" ht="45">
-      <c r="B36" s="2" t="s">
-        <v>57</v>
+      <c r="B36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>68</v>
+        <v>219</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="30">
       <c r="B37" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="2:6" ht="105">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="C38" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="D38" s="3" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="90">
+      <c r="B39" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" ht="90">
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="285">
+      <c r="B41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="120">
+      <c r="B42" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="2:6" ht="30">
+      <c r="B43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D43" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="240">
+      <c r="B44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="135">
+      <c r="B47" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="285">
-      <c r="B41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="C47" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E41" s="3" t="s">
+    </row>
+    <row r="48" spans="2:6" ht="150">
+      <c r="B48" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="180">
+      <c r="B49" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" ht="120">
-      <c r="B42" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="C49" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="2:6" ht="60">
-      <c r="B43" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="240">
-      <c r="B44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="D50" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="45">
+      <c r="B52" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="75">
+      <c r="B56" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="120">
+      <c r="B57" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="2:5" ht="45">
+      <c r="B58" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="2:5" ht="135">
+      <c r="B59" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="2:5" ht="75">
+      <c r="B60" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="135">
-      <c r="B47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" s="3" t="s">
+    </row>
+    <row r="61" spans="2:5" ht="26.25" customHeight="1">
+      <c r="B61" s="28"/>
+      <c r="C61" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="60">
+      <c r="B62" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="150">
-      <c r="B48" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" ht="180">
-      <c r="B49" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="B51" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="45">
-      <c r="B52" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="75">
-      <c r="B56" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="120">
-      <c r="B57" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="45">
-      <c r="B58" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" ht="135">
-      <c r="B59" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="75">
-      <c r="B60" s="31" t="s">
+      <c r="C63" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E60" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" ht="26.25" customHeight="1">
-      <c r="B61" s="31"/>
-      <c r="D61" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" ht="60">
-      <c r="B62" s="2" t="s">
+      <c r="C64" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" s="23"/>
+      <c r="E64" t="s">
         <v>178</v>
       </c>
-      <c r="D62" s="3" t="s">
+    </row>
+    <row r="65" spans="3:4" ht="165">
+      <c r="C65" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="B63" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="B64" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="E64" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4" ht="165">
-      <c r="D65" s="3" t="s">
-        <v>185</v>
-      </c>
+      <c r="D65" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B60:B61"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="F33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{9C90BE9B-078A-4BF4-99CB-490A6386A0F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <headerFooter>
     <oddFooter>&amp;RClassification: Genpact Internal</oddFooter>
   </headerFooter>
@@ -2253,9 +2497,9 @@
   <sheetData>
     <row r="2" spans="2:3" ht="18.75">
       <c r="B2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="20">
+        <v>103</v>
+      </c>
+      <c r="C2" s="15">
         <f>MID(B2,SEARCH("(",B2)+1,SEARCH(")",B2)-SEARCH("(",B2)-1)+0</f>
         <v>548038</v>
       </c>
@@ -2285,29 +2529,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="207" customHeight="1">
-      <c r="B2" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>114</v>
+      <c r="B2" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="C4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="45">
-      <c r="C6" s="21" t="s">
-        <v>117</v>
+      <c r="C6" s="16" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="105">
-      <c r="C8" s="21" t="s">
-        <v>120</v>
+      <c r="C8" s="16" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2341,278 +2585,278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>145</v>
+      <c r="A1" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="C2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>165</v>
+        <v>122</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="26">
+        <v>123</v>
+      </c>
+      <c r="B4" s="21">
         <v>2.2777777777777777</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="26">
+        <v>141</v>
+      </c>
+      <c r="E4" s="21">
         <v>2.4166666666666665</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H4" s="27">
+        <v>160</v>
+      </c>
+      <c r="H4" s="22">
         <v>6.3194444444444442E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="26">
+        <v>124</v>
+      </c>
+      <c r="B5" s="21">
         <v>2.2916666666666665</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="27">
+        <v>142</v>
+      </c>
+      <c r="E5" s="22">
         <v>5.3124999999999999E-2</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" s="27">
+        <v>161</v>
+      </c>
+      <c r="H5" s="22">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="26">
+        <v>125</v>
+      </c>
+      <c r="B6" s="21">
         <v>2.4027777777777777</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="27">
+        <v>143</v>
+      </c>
+      <c r="E6" s="22">
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H6" s="27">
+        <v>162</v>
+      </c>
+      <c r="H6" s="22">
         <v>7.4305555555555555E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="26">
+        <v>126</v>
+      </c>
+      <c r="B7" s="21">
         <v>2.4583333333333335</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="27">
+        <v>144</v>
+      </c>
+      <c r="E7" s="22">
         <v>7.2222222222222229E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="26">
+        <v>127</v>
+      </c>
+      <c r="B8" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="27">
+        <v>145</v>
+      </c>
+      <c r="E8" s="22">
         <v>7.4305555555555555E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30">
       <c r="A9" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="26">
+        <v>128</v>
+      </c>
+      <c r="B9" s="21">
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="26">
+        <v>129</v>
+      </c>
+      <c r="B10" s="21">
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="C10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="26">
+        <v>130</v>
+      </c>
+      <c r="B11" s="21">
         <v>5.1041666666666673E-2</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="27">
+        <v>147</v>
+      </c>
+      <c r="E11" s="22">
         <v>0.56944444444444442</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="26">
+        <v>131</v>
+      </c>
+      <c r="B12" s="21">
         <v>5.1967592592592593E-2</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="27">
+        <v>148</v>
+      </c>
+      <c r="E12" s="22">
         <v>0.82638888888888884</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" s="26">
+        <v>132</v>
+      </c>
+      <c r="B13" s="21">
         <v>5.2256944444444446E-2</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E13" s="26">
+        <v>149</v>
+      </c>
+      <c r="E13" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="26">
+        <v>133</v>
+      </c>
+      <c r="B14" s="21">
         <v>5.2951388888888888E-2</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="26">
+        <v>150</v>
+      </c>
+      <c r="E14" s="21">
         <v>1.1597222222222221</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="26">
+        <v>134</v>
+      </c>
+      <c r="B15" s="21">
         <v>5.3819444444444448E-2</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="26">
+        <v>151</v>
+      </c>
+      <c r="E15" s="21">
         <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="27">
+        <v>135</v>
+      </c>
+      <c r="B16" s="22">
         <v>5.5787037037037031E-2</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="26">
+        <v>152</v>
+      </c>
+      <c r="E16" s="21">
         <v>4.9999999999999996E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" s="27">
+        <v>136</v>
+      </c>
+      <c r="B17" s="22">
         <v>5.8530092592592592E-2</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>160</v>
+        <v>140</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="27">
+        <v>137</v>
+      </c>
+      <c r="B18" s="22">
         <v>6.5451388888888892E-2</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" s="26">
+        <v>153</v>
+      </c>
+      <c r="E18" s="21">
         <v>0.875</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="27">
+        <v>138</v>
+      </c>
+      <c r="B19" s="22">
         <v>8.1944444444444445E-2</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="26">
+        <v>155</v>
+      </c>
+      <c r="E19" s="21">
         <v>1.625</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="D20" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="26">
+        <v>156</v>
+      </c>
+      <c r="E20" s="21">
         <v>2.25</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="D21" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="27">
+        <v>157</v>
+      </c>
+      <c r="E21" s="22">
         <v>5.2083333333333336E-2</v>
       </c>
     </row>

--- a/Commands - Python.xlsx
+++ b/Commands - Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashish\Desktop\Github Repos\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D10034E-7466-4DA3-87DB-F8DB312AED27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F349C9AD-22B6-443B-8A82-DF6359DC71FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="231">
   <si>
     <t xml:space="preserve"># </t>
   </si>
@@ -1071,6 +1071,9 @@
 from pyspark.sql.functions import concat, concat_ws
 df.withColumn('New', concat(df['Name'], df['Departments'])).show()
 df.withColumn('New', concat_ws('_',df['Name'], df['Departments'])).show()</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -1330,26 +1333,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1642,7 +1645,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1684,7 +1687,7 @@
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -1699,7 +1702,7 @@
     </row>
     <row r="5" spans="1:5" s="27" customFormat="1">
       <c r="A5" s="26"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>198</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -1726,7 +1729,7 @@
       <c r="A7" s="13">
         <v>1</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1739,7 +1742,7 @@
     </row>
     <row r="8" spans="1:5" ht="75">
       <c r="A8" s="13"/>
-      <c r="B8" s="32"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="11" t="s">
         <v>174</v>
       </c>
@@ -1752,7 +1755,7 @@
       <c r="A9" s="13">
         <v>2</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -1769,7 +1772,7 @@
       <c r="A10" s="13">
         <v>3</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -1784,7 +1787,7 @@
       <c r="A11" s="13">
         <v>4</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -1795,7 +1798,7 @@
     </row>
     <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="13"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>93</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1808,7 +1811,7 @@
       <c r="A13" s="13">
         <v>5</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1825,7 +1828,7 @@
       <c r="A14" s="13">
         <v>6</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1842,7 +1845,7 @@
       <c r="A15" s="13">
         <v>7</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1857,7 +1860,7 @@
       <c r="A16" s="13">
         <v>8</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1872,7 +1875,7 @@
       <c r="A17" s="13">
         <v>9</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1883,7 +1886,7 @@
     </row>
     <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="13"/>
-      <c r="B18" s="32"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="4" t="s">
         <v>99</v>
       </c>
@@ -1896,7 +1899,7 @@
       <c r="A19" s="13">
         <v>10</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1911,7 +1914,7 @@
       <c r="A20" s="13">
         <v>11</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="31" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1926,7 +1929,7 @@
       <c r="A21" s="13">
         <v>12</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -1941,7 +1944,7 @@
       <c r="A22" s="13">
         <v>13</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1956,7 +1959,7 @@
       <c r="A23" s="13">
         <v>14</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -1971,7 +1974,7 @@
       <c r="A24" s="13">
         <v>15</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1984,7 +1987,7 @@
       <c r="A25" s="13">
         <v>16</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1999,7 +2002,7 @@
       <c r="A26" s="13">
         <v>17</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="32" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -2012,7 +2015,7 @@
       <c r="A27" s="13">
         <v>18</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -2025,7 +2028,7 @@
       <c r="A28" s="13">
         <v>19</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="31" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2040,7 +2043,7 @@
       <c r="A29" s="13">
         <v>20</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -2055,7 +2058,7 @@
       <c r="A30" s="13">
         <v>21</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="18" t="s">
@@ -2072,7 +2075,7 @@
       <c r="A31" s="13">
         <v>22</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -2367,6 +2370,9 @@
       <c r="C55" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="56" spans="2:5" ht="75">
       <c r="B56" s="3" t="s">
@@ -2408,7 +2414,7 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="2:5" ht="75">
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="34" t="s">
         <v>171</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -2420,7 +2426,7 @@
       </c>
     </row>
     <row r="61" spans="2:5" ht="26.25" customHeight="1">
-      <c r="B61" s="28"/>
+      <c r="B61" s="34"/>
       <c r="C61" s="2" t="s">
         <v>192</v>
       </c>
